--- a/05_自有資金系統/04_Metting/05_MutualFundAndFutures/會議紀錄初稿區/050405-003-URD-20161111_IAD中台/Reference/Rebate/AZ Rebate 2016Q2.xlsx
+++ b/05_自有資金系統/04_Metting/05_MutualFundAndFutures/會議紀錄初稿區/050405-003-URD-20161111_IAD中台/Reference/Rebate/AZ Rebate 2016Q2.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="192">
   <si>
     <t>Management fees generated EUR)</t>
   </si>
@@ -73,39 +73,563 @@
   <si>
     <t>2016Q2 Rebate</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LU0947788245</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friday, July 29, 2016</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Thursday, July 28, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, July 27, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, July 26, 2016</t>
+  </si>
+  <si>
+    <t>Monday, July 25, 2016</t>
+  </si>
+  <si>
+    <t>Friday, July 22, 2016</t>
+  </si>
+  <si>
+    <t>Thursday, July 21, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, July 20, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, July 19, 2016</t>
+  </si>
+  <si>
+    <t>Monday, July 18, 2016</t>
+  </si>
+  <si>
+    <t>Friday, July 15, 2016</t>
+  </si>
+  <si>
+    <t>Thursday, July 14, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, July 13, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, July 12, 2016</t>
+  </si>
+  <si>
+    <t>Monday, July 11, 2016</t>
+  </si>
+  <si>
+    <t>Friday, July 08, 2016</t>
+  </si>
+  <si>
+    <t>Thursday, July 07, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, July 06, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, July 05, 2016</t>
+  </si>
+  <si>
+    <t>Monday, July 04, 2016</t>
+  </si>
+  <si>
+    <t>Friday, July 01, 2016</t>
+  </si>
+  <si>
+    <t>Thursday, June 30, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, June 29, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, June 28, 2016</t>
+  </si>
+  <si>
+    <t>Monday, June 27, 2016</t>
+  </si>
+  <si>
+    <t>Friday, June 24, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, June 22, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, June 21, 2016</t>
+  </si>
+  <si>
+    <t>Monday, June 20, 2016</t>
+  </si>
+  <si>
+    <t>Friday, June 17, 2016</t>
+  </si>
+  <si>
+    <t>Thursday, June 16, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, June 15, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, June 14, 2016</t>
+  </si>
+  <si>
+    <t>Monday, June 13, 2016</t>
+  </si>
+  <si>
+    <t>Friday, June 10, 2016</t>
+  </si>
+  <si>
+    <t>Thursday, June 09, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, June 08, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, June 07, 2016</t>
+  </si>
+  <si>
+    <t>Monday, June 06, 2016</t>
+  </si>
+  <si>
+    <t>Friday, June 03, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, June 01, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, May 31, 2016</t>
+  </si>
+  <si>
+    <t>Monday, May 30, 2016</t>
+  </si>
+  <si>
+    <t>Friday, May 27, 2016</t>
+  </si>
+  <si>
+    <t>Thursday, May 26, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, May 25, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, May 24, 2016</t>
+  </si>
+  <si>
+    <t>Monday, May 23, 2016</t>
+  </si>
+  <si>
+    <t>Friday, May 20, 2016</t>
+  </si>
+  <si>
+    <t>Thursday, May 19, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, May 18, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, May 17, 2016</t>
+  </si>
+  <si>
+    <t>Friday, May 13, 2016</t>
+  </si>
+  <si>
+    <t>Thursday, May 12, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, May 11, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, May 10, 2016</t>
+  </si>
+  <si>
+    <t>Monday, May 09, 2016</t>
+  </si>
+  <si>
+    <t>Friday, May 06, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, May 04, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, May 03, 2016</t>
+  </si>
+  <si>
+    <t>Monday, May 02, 2016</t>
+  </si>
+  <si>
+    <t>Friday, April 29, 2016</t>
+  </si>
+  <si>
+    <t>Thursday, April 28, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, April 27, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, April 26, 2016</t>
+  </si>
+  <si>
+    <t>Friday, April 22, 2016</t>
+  </si>
+  <si>
+    <t>Thursday, April 21, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, April 20, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, April 19, 2016</t>
+  </si>
+  <si>
+    <t>Monday, April 18, 2016</t>
+  </si>
+  <si>
+    <t>Friday, April 15, 2016</t>
+  </si>
+  <si>
+    <t>Thursday, April 14, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, April 13, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, April 12, 2016</t>
+  </si>
+  <si>
+    <t>Monday, April 11, 2016</t>
+  </si>
+  <si>
+    <t>Friday, April 08, 2016</t>
+  </si>
+  <si>
+    <t>Thursday, April 07, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, April 06, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, April 05, 2016</t>
+  </si>
+  <si>
+    <t>Monday, April 04, 2016</t>
+  </si>
+  <si>
+    <t>Friday, April 01, 2016</t>
+  </si>
+  <si>
+    <t>Thursday, March 31, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, March 30, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, March 29, 2016</t>
+  </si>
+  <si>
+    <t>Thursday, March 24, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, March 23, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, March 22, 2016</t>
+  </si>
+  <si>
+    <t>Monday, March 21, 2016</t>
+  </si>
+  <si>
+    <t>Friday, March 18, 2016</t>
+  </si>
+  <si>
+    <t>Thursday, March 17, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, March 16, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, March 15, 2016</t>
+  </si>
+  <si>
+    <t>Monday, March 14, 2016</t>
+  </si>
+  <si>
+    <t>Friday, March 11, 2016</t>
+  </si>
+  <si>
+    <t>Thursday, March 10, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, March 09, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, March 08, 2016</t>
+  </si>
+  <si>
+    <t>Monday, March 07, 2016</t>
+  </si>
+  <si>
+    <t>Friday, March 04, 2016</t>
+  </si>
+  <si>
+    <t>Thursday, March 03, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, March 02, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, March 01, 2016</t>
+  </si>
+  <si>
+    <t>Monday, February 29, 2016</t>
+  </si>
+  <si>
+    <t>Friday, February 26, 2016</t>
+  </si>
+  <si>
+    <t>Thursday, February 25, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, February 24, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, February 23, 2016</t>
+  </si>
+  <si>
+    <t>Monday, February 22, 2016</t>
+  </si>
+  <si>
+    <t>Friday, February 19, 2016</t>
+  </si>
+  <si>
+    <t>Thursday, February 18, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, February 17, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, February 16, 2016</t>
+  </si>
+  <si>
+    <t>Monday, February 15, 2016</t>
+  </si>
+  <si>
+    <t>Friday, February 12, 2016</t>
+  </si>
+  <si>
+    <t>Thursday, February 11, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, February 10, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, February 09, 2016</t>
+  </si>
+  <si>
+    <t>Monday, February 08, 2016</t>
+  </si>
+  <si>
+    <t>Friday, February 05, 2016</t>
+  </si>
+  <si>
+    <t>Thursday, February 04, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, February 03, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, February 02, 2016</t>
+  </si>
+  <si>
+    <t>Monday, February 01, 2016</t>
+  </si>
+  <si>
+    <t>Friday, January 29, 2016</t>
+  </si>
+  <si>
+    <t>Thursday, January 28, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, January 27, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, January 26, 2016</t>
+  </si>
+  <si>
+    <t>Monday, January 25, 2016</t>
+  </si>
+  <si>
+    <t>Friday, January 22, 2016</t>
+  </si>
+  <si>
+    <t>Thursday, January 21, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, January 20, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, January 19, 2016</t>
+  </si>
+  <si>
+    <t>Monday, January 18, 2016</t>
+  </si>
+  <si>
+    <t>Friday, January 15, 2016</t>
+  </si>
+  <si>
+    <t>Thursday, January 14, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, January 13, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, January 12, 2016</t>
+  </si>
+  <si>
+    <t>Monday, January 11, 2016</t>
+  </si>
+  <si>
+    <t>Friday, January 08, 2016</t>
+  </si>
+  <si>
+    <t>Thursday, January 07, 2016</t>
+  </si>
+  <si>
+    <t>Tuesday, January 05, 2016</t>
+  </si>
+  <si>
+    <t>Monday, January 04, 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, December 30, 2015</t>
+  </si>
+  <si>
+    <t>Tuesday, December 29, 2015</t>
+  </si>
+  <si>
+    <t>Monday, December 28, 2015</t>
+  </si>
+  <si>
+    <t>Wednesday, December 23, 2015</t>
+  </si>
+  <si>
+    <t>Tuesday, December 22, 2015</t>
+  </si>
+  <si>
+    <t>Monday, December 21, 2015</t>
+  </si>
+  <si>
+    <t>Friday, December 18, 2015</t>
+  </si>
+  <si>
+    <t>Thursday, December 17, 2015</t>
+  </si>
+  <si>
+    <t>Wednesday, December 16, 2015</t>
+  </si>
+  <si>
+    <t>Tuesday, December 15, 2015</t>
+  </si>
+  <si>
+    <t>Monday, December 14, 2015</t>
+  </si>
+  <si>
+    <t>Friday, December 11, 2015</t>
+  </si>
+  <si>
+    <t>Thursday, December 10, 2015</t>
+  </si>
+  <si>
+    <t>Wednesday, December 09, 2015</t>
+  </si>
+  <si>
+    <t>Monday, December 07, 2015</t>
+  </si>
+  <si>
+    <t>Friday, December 04, 2015</t>
+  </si>
+  <si>
+    <t>Thursday, December 03, 2015</t>
+  </si>
+  <si>
+    <t>Wednesday, December 02, 2015</t>
+  </si>
+  <si>
+    <t>Tuesday, December 01, 2015</t>
+  </si>
+  <si>
+    <t>Monday, November 30, 2015</t>
+  </si>
+  <si>
+    <t>Friday, November 27, 2015</t>
+  </si>
+  <si>
+    <t>Thursday, November 26, 2015</t>
+  </si>
+  <si>
+    <t>Wednesday, November 25, 2015</t>
+  </si>
+  <si>
+    <t>Tuesday, November 24, 2015</t>
+  </si>
+  <si>
+    <t>Monday, November 23, 2015</t>
+  </si>
+  <si>
+    <t>Friday, November 20, 2015</t>
+  </si>
+  <si>
+    <t>Thursday, November 19, 2015</t>
+  </si>
+  <si>
+    <t>Data delayed at least 15 minutes, as of Nov 23 2016.</t>
+  </si>
+  <si>
+    <t>Show more</t>
+  </si>
+  <si>
+    <t>FT Lexicon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="0.0000000_);[Red]\(0.0000000\)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
-      <family val="2"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="新細明體"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="新細明體"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
@@ -116,25 +640,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="新細明體"/>
-      <family val="2"/>
+      <family val="1"/>
       <charset val="136"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="新細明體"/>
-      <family val="3"/>
+      <family val="1"/>
       <charset val="136"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -146,14 +667,39 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="新細明體"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <u/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="63"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="23"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="63"/>
+      <name val="FinancierDisplayWeb"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
@@ -162,7 +708,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,7 +717,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -189,52 +753,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="4"/>
-    <cellStyle name="一般 3" xfId="1"/>
-    <cellStyle name="千分位 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="2"/>
+    <cellStyle name="一般 3" xfId="3"/>
+    <cellStyle name="千分位 2" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -242,7 +837,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -528,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -593,7 +1188,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>4</v>
@@ -620,8 +1215,18 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="E8" s="15">
+        <f>E7/D7</f>
+        <v>21.78236437775773</v>
+      </c>
+      <c r="F8" s="15">
+        <f>F7/E7</f>
+        <v>9.6732171708669942E-4</v>
+      </c>
+      <c r="G8" s="15">
+        <f>G7/F7</f>
+        <v>4.5908698553455182E-2</v>
+      </c>
       <c r="H8" s="10" t="s">
         <v>16</v>
       </c>
@@ -709,8 +1314,19 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="15">
+        <f>E13/D13</f>
+        <v>22.269937497414432</v>
+      </c>
+      <c r="F14" s="15">
+        <f>F13/E13</f>
+        <v>9.6812671301818316E-4</v>
+      </c>
+      <c r="G14" s="15">
+        <f>G13/F13</f>
+        <v>4.490358359183097E-2</v>
+      </c>
       <c r="H14" s="10" t="s">
         <v>16</v>
       </c>
@@ -798,6 +1414,18 @@
       </c>
     </row>
     <row r="20" spans="1:9">
+      <c r="E20" s="2">
+        <f>E19/D19</f>
+        <v>22.748833165495707</v>
+      </c>
+      <c r="F20" s="2">
+        <f>F19/E19</f>
+        <v>9.6847841326852795E-4</v>
+      </c>
+      <c r="G20" s="2">
+        <f>G19/F19</f>
+        <v>4.3958298552065962E-2</v>
+      </c>
       <c r="H20" s="10" t="s">
         <v>16</v>
       </c>
@@ -823,14 +1451,3437 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="31.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="C1" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="D1" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="E1" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="C2" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="D2" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="E2" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="C3" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="D3" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="E3" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="C4" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="D4" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="E4" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="C5" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="D5" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="E5" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="C6" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="D6" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="E6" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="C7" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="D7" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="E7" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="C8" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="D8" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="E8" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="C9" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="D9" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="E9" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="C10" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="D10" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="E10" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="17">
+        <v>5</v>
+      </c>
+      <c r="C11" s="17">
+        <v>5</v>
+      </c>
+      <c r="D11" s="17">
+        <v>5</v>
+      </c>
+      <c r="E11" s="17">
+        <v>5</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="17">
+        <v>5</v>
+      </c>
+      <c r="C12" s="17">
+        <v>5</v>
+      </c>
+      <c r="D12" s="17">
+        <v>5</v>
+      </c>
+      <c r="E12" s="17">
+        <v>5</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="17">
+        <v>5</v>
+      </c>
+      <c r="C13" s="17">
+        <v>5</v>
+      </c>
+      <c r="D13" s="17">
+        <v>5</v>
+      </c>
+      <c r="E13" s="17">
+        <v>5</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="17">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="C14" s="17">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="D14" s="17">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E14" s="17">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="17">
+        <v>4.95</v>
+      </c>
+      <c r="C15" s="17">
+        <v>4.95</v>
+      </c>
+      <c r="D15" s="17">
+        <v>4.95</v>
+      </c>
+      <c r="E15" s="17">
+        <v>4.95</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="17">
+        <v>4.93</v>
+      </c>
+      <c r="C16" s="17">
+        <v>4.93</v>
+      </c>
+      <c r="D16" s="17">
+        <v>4.93</v>
+      </c>
+      <c r="E16" s="17">
+        <v>4.93</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="17">
+        <v>4.93</v>
+      </c>
+      <c r="C17" s="17">
+        <v>4.93</v>
+      </c>
+      <c r="D17" s="17">
+        <v>4.93</v>
+      </c>
+      <c r="E17" s="17">
+        <v>4.93</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="17">
+        <v>4.92</v>
+      </c>
+      <c r="C18" s="17">
+        <v>4.92</v>
+      </c>
+      <c r="D18" s="17">
+        <v>4.92</v>
+      </c>
+      <c r="E18" s="17">
+        <v>4.92</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="17">
+        <v>4.93</v>
+      </c>
+      <c r="C19" s="17">
+        <v>4.93</v>
+      </c>
+      <c r="D19" s="17">
+        <v>4.93</v>
+      </c>
+      <c r="E19" s="17">
+        <v>4.93</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="17">
+        <v>4.93</v>
+      </c>
+      <c r="C20" s="17">
+        <v>4.93</v>
+      </c>
+      <c r="D20" s="17">
+        <v>4.93</v>
+      </c>
+      <c r="E20" s="17">
+        <v>4.93</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="17">
+        <v>4.92</v>
+      </c>
+      <c r="C21" s="17">
+        <v>4.92</v>
+      </c>
+      <c r="D21" s="17">
+        <v>4.92</v>
+      </c>
+      <c r="E21" s="17">
+        <v>4.92</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="17">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C22" s="17">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D22" s="17">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E22" s="17">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="17">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="C23" s="17">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D23" s="17">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E23" s="17">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="25">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="C24" s="25">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D24" s="25">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E24" s="25">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="25">
+        <v>4.84</v>
+      </c>
+      <c r="C25" s="25">
+        <v>4.84</v>
+      </c>
+      <c r="D25" s="25">
+        <v>4.84</v>
+      </c>
+      <c r="E25" s="25">
+        <v>4.84</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="25">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="C26" s="25">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D26" s="25">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E26" s="25">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="25">
+        <v>4.92</v>
+      </c>
+      <c r="C27" s="25">
+        <v>4.92</v>
+      </c>
+      <c r="D27" s="25">
+        <v>4.92</v>
+      </c>
+      <c r="E27" s="25">
+        <v>4.92</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="25">
+        <v>4.91</v>
+      </c>
+      <c r="C28" s="25">
+        <v>4.91</v>
+      </c>
+      <c r="D28" s="25">
+        <v>4.91</v>
+      </c>
+      <c r="E28" s="25">
+        <v>4.91</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C29" s="25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D29" s="25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E29" s="25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="25">
+        <v>4.88</v>
+      </c>
+      <c r="C30" s="25">
+        <v>4.88</v>
+      </c>
+      <c r="D30" s="25">
+        <v>4.88</v>
+      </c>
+      <c r="E30" s="25">
+        <v>4.88</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="25">
+        <v>4.87</v>
+      </c>
+      <c r="C31" s="25">
+        <v>4.87</v>
+      </c>
+      <c r="D31" s="25">
+        <v>4.87</v>
+      </c>
+      <c r="E31" s="25">
+        <v>4.87</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="25">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="C32" s="25">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D32" s="25">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E32" s="25">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="25">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="C33" s="25">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D33" s="25">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E33" s="25">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="25">
+        <v>4.91</v>
+      </c>
+      <c r="C34" s="25">
+        <v>4.91</v>
+      </c>
+      <c r="D34" s="25">
+        <v>4.91</v>
+      </c>
+      <c r="E34" s="25">
+        <v>4.91</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="25">
+        <v>4.93</v>
+      </c>
+      <c r="C35" s="25">
+        <v>4.93</v>
+      </c>
+      <c r="D35" s="25">
+        <v>4.93</v>
+      </c>
+      <c r="E35" s="25">
+        <v>4.93</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="25">
+        <v>4.95</v>
+      </c>
+      <c r="C36" s="25">
+        <v>4.95</v>
+      </c>
+      <c r="D36" s="25">
+        <v>4.95</v>
+      </c>
+      <c r="E36" s="25">
+        <v>4.95</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="25">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="C37" s="25">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="D37" s="25">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="E37" s="25">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="25">
+        <v>4.93</v>
+      </c>
+      <c r="C38" s="25">
+        <v>4.93</v>
+      </c>
+      <c r="D38" s="25">
+        <v>4.93</v>
+      </c>
+      <c r="E38" s="25">
+        <v>4.93</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="25">
+        <v>4.91</v>
+      </c>
+      <c r="C39" s="25">
+        <v>4.91</v>
+      </c>
+      <c r="D39" s="25">
+        <v>4.91</v>
+      </c>
+      <c r="E39" s="25">
+        <v>4.91</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C40" s="25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D40" s="25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E40" s="25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="25">
+        <v>4.88</v>
+      </c>
+      <c r="C41" s="25">
+        <v>4.88</v>
+      </c>
+      <c r="D41" s="25">
+        <v>4.88</v>
+      </c>
+      <c r="E41" s="25">
+        <v>4.88</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="25">
+        <v>18</v>
+      </c>
+      <c r="H41">
+        <f>AVERAGE(E24:E41)</f>
+        <v>4.8972222222222221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="23">
+        <v>4.88</v>
+      </c>
+      <c r="C42" s="23">
+        <v>4.88</v>
+      </c>
+      <c r="D42" s="23">
+        <v>4.88</v>
+      </c>
+      <c r="E42" s="23">
+        <v>4.88</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="23">
+        <v>4.87</v>
+      </c>
+      <c r="C43" s="23">
+        <v>4.87</v>
+      </c>
+      <c r="D43" s="23">
+        <v>4.87</v>
+      </c>
+      <c r="E43" s="23">
+        <v>4.87</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="23">
+        <v>4.87</v>
+      </c>
+      <c r="C44" s="23">
+        <v>4.87</v>
+      </c>
+      <c r="D44" s="23">
+        <v>4.87</v>
+      </c>
+      <c r="E44" s="23">
+        <v>4.87</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="23">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="C45" s="23">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="D45" s="23">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E45" s="23">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="23">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="C46" s="23">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D46" s="23">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E46" s="23">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="23">
+        <v>4.84</v>
+      </c>
+      <c r="C47" s="23">
+        <v>4.84</v>
+      </c>
+      <c r="D47" s="23">
+        <v>4.84</v>
+      </c>
+      <c r="E47" s="23">
+        <v>4.84</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="23">
+        <v>4.84</v>
+      </c>
+      <c r="C48" s="23">
+        <v>4.84</v>
+      </c>
+      <c r="D48" s="23">
+        <v>4.84</v>
+      </c>
+      <c r="E48" s="23">
+        <v>4.84</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="23">
+        <v>4.84</v>
+      </c>
+      <c r="C49" s="23">
+        <v>4.84</v>
+      </c>
+      <c r="D49" s="23">
+        <v>4.84</v>
+      </c>
+      <c r="E49" s="23">
+        <v>4.84</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="23">
+        <v>4.84</v>
+      </c>
+      <c r="C50" s="23">
+        <v>4.84</v>
+      </c>
+      <c r="D50" s="23">
+        <v>4.84</v>
+      </c>
+      <c r="E50" s="23">
+        <v>4.84</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="23">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="C51" s="23">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D51" s="23">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E51" s="23">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="23">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="C52" s="23">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D52" s="23">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E52" s="23">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="23">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="C53" s="23">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="D53" s="23">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E53" s="23">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="23">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="C54" s="23">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="D54" s="23">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E54" s="23">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="23">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="C55" s="23">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="D55" s="23">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E55" s="23">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="23">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="C56" s="23">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="D56" s="23">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E56" s="23">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="23">
+        <v>4.87</v>
+      </c>
+      <c r="C57" s="23">
+        <v>4.87</v>
+      </c>
+      <c r="D57" s="23">
+        <v>4.87</v>
+      </c>
+      <c r="E57" s="23">
+        <v>4.87</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="23">
+        <v>4.88</v>
+      </c>
+      <c r="C58" s="23">
+        <v>4.88</v>
+      </c>
+      <c r="D58" s="23">
+        <v>4.88</v>
+      </c>
+      <c r="E58" s="23">
+        <v>4.88</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="23">
+        <v>4.88</v>
+      </c>
+      <c r="C59" s="23">
+        <v>4.88</v>
+      </c>
+      <c r="D59" s="23">
+        <v>4.88</v>
+      </c>
+      <c r="E59" s="23">
+        <v>4.88</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="23">
+        <v>4.88</v>
+      </c>
+      <c r="C60" s="23">
+        <v>4.88</v>
+      </c>
+      <c r="D60" s="23">
+        <v>4.88</v>
+      </c>
+      <c r="E60" s="23">
+        <v>4.88</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="23">
+        <v>4.88</v>
+      </c>
+      <c r="C61" s="23">
+        <v>4.88</v>
+      </c>
+      <c r="D61" s="23">
+        <v>4.88</v>
+      </c>
+      <c r="E61" s="23">
+        <v>4.88</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="23">
+        <v>20</v>
+      </c>
+      <c r="H61">
+        <f>AVERAGE(E42:E61)</f>
+        <v>4.8609999999999989</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" s="21">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="C62" s="21">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D62" s="21">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E62" s="21">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="21">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="C63" s="21">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D63" s="21">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E63" s="21">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" s="21">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="C64" s="21">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D64" s="21">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E64" s="21">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" s="21">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C65" s="21">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D65" s="21">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E65" s="21">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" s="21">
+        <v>4.91</v>
+      </c>
+      <c r="C66" s="21">
+        <v>4.91</v>
+      </c>
+      <c r="D66" s="21">
+        <v>4.91</v>
+      </c>
+      <c r="E66" s="21">
+        <v>4.91</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" s="21">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="C67" s="21">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D67" s="21">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E67" s="21">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" s="21">
+        <v>4.87</v>
+      </c>
+      <c r="C68" s="21">
+        <v>4.87</v>
+      </c>
+      <c r="D68" s="21">
+        <v>4.87</v>
+      </c>
+      <c r="E68" s="21">
+        <v>4.87</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" s="21">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="C69" s="21">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="D69" s="21">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E69" s="21">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="C70" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D70" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E70" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" s="21">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C71" s="21">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D71" s="21">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E71" s="21">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" s="21">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="C72" s="21">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D72" s="21">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E72" s="21">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="F72" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="21">
+        <v>4.87</v>
+      </c>
+      <c r="C73" s="21">
+        <v>4.87</v>
+      </c>
+      <c r="D73" s="21">
+        <v>4.87</v>
+      </c>
+      <c r="E73" s="21">
+        <v>4.87</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="C74" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D74" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E74" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="C75" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D75" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E75" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="C76" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D76" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E76" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F76" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="C77" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D77" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E77" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="C78" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D78" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E78" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="C79" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D79" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E79" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="C80" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D80" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E80" s="21">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="21">
+        <v>4.84</v>
+      </c>
+      <c r="C81" s="21">
+        <v>4.84</v>
+      </c>
+      <c r="D81" s="21">
+        <v>4.84</v>
+      </c>
+      <c r="E81" s="21">
+        <v>4.84</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" s="21">
+        <v>20</v>
+      </c>
+      <c r="H81">
+        <f>AVERAGE(E62:E81)</f>
+        <v>4.8699999999999992</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" s="17">
+        <v>4.84</v>
+      </c>
+      <c r="C82" s="17">
+        <v>4.84</v>
+      </c>
+      <c r="D82" s="17">
+        <v>4.84</v>
+      </c>
+      <c r="E82" s="17">
+        <v>4.84</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" s="17">
+        <v>4.83</v>
+      </c>
+      <c r="C83" s="17">
+        <v>4.83</v>
+      </c>
+      <c r="D83" s="17">
+        <v>4.83</v>
+      </c>
+      <c r="E83" s="17">
+        <v>4.83</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" s="17">
+        <v>4.83</v>
+      </c>
+      <c r="C84" s="17">
+        <v>4.83</v>
+      </c>
+      <c r="D84" s="17">
+        <v>4.83</v>
+      </c>
+      <c r="E84" s="17">
+        <v>4.83</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85" s="17">
+        <v>4.83</v>
+      </c>
+      <c r="C85" s="17">
+        <v>4.83</v>
+      </c>
+      <c r="D85" s="17">
+        <v>4.83</v>
+      </c>
+      <c r="E85" s="17">
+        <v>4.83</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" s="17">
+        <v>4.84</v>
+      </c>
+      <c r="C86" s="17">
+        <v>4.84</v>
+      </c>
+      <c r="D86" s="17">
+        <v>4.84</v>
+      </c>
+      <c r="E86" s="17">
+        <v>4.84</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" s="17">
+        <v>4.83</v>
+      </c>
+      <c r="C87" s="17">
+        <v>4.83</v>
+      </c>
+      <c r="D87" s="17">
+        <v>4.83</v>
+      </c>
+      <c r="E87" s="17">
+        <v>4.83</v>
+      </c>
+      <c r="F87" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" s="17">
+        <v>4.82</v>
+      </c>
+      <c r="C88" s="17">
+        <v>4.82</v>
+      </c>
+      <c r="D88" s="17">
+        <v>4.82</v>
+      </c>
+      <c r="E88" s="17">
+        <v>4.82</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89" s="17">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="C89" s="17">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="D89" s="17">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="E89" s="17">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="F89" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B90" s="17">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="C90" s="17">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="D90" s="17">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="E90" s="17">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91" s="17">
+        <v>4.8</v>
+      </c>
+      <c r="C91" s="17">
+        <v>4.8</v>
+      </c>
+      <c r="D91" s="17">
+        <v>4.8</v>
+      </c>
+      <c r="E91" s="17">
+        <v>4.8</v>
+      </c>
+      <c r="F91" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" s="17">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="C92" s="17">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="D92" s="17">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="E92" s="17">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="F92" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B93" s="17">
+        <v>4.83</v>
+      </c>
+      <c r="C93" s="17">
+        <v>4.83</v>
+      </c>
+      <c r="D93" s="17">
+        <v>4.83</v>
+      </c>
+      <c r="E93" s="17">
+        <v>4.83</v>
+      </c>
+      <c r="F93" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B94" s="17">
+        <v>4.8</v>
+      </c>
+      <c r="C94" s="17">
+        <v>4.8</v>
+      </c>
+      <c r="D94" s="17">
+        <v>4.8</v>
+      </c>
+      <c r="E94" s="17">
+        <v>4.8</v>
+      </c>
+      <c r="F94" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B95" s="17">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="C95" s="17">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="D95" s="17">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="E95" s="17">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B96" s="17">
+        <v>4.68</v>
+      </c>
+      <c r="C96" s="17">
+        <v>4.68</v>
+      </c>
+      <c r="D96" s="17">
+        <v>4.68</v>
+      </c>
+      <c r="E96" s="17">
+        <v>4.68</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B97" s="17">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="C97" s="17">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="D97" s="17">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="E97" s="17">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B98" s="17">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="C98" s="17">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="D98" s="17">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="E98" s="17">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B99" s="17">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="C99" s="17">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="D99" s="17">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="E99" s="17">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B100" s="17">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="C100" s="17">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="D100" s="17">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="E100" s="17">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B101" s="17">
+        <v>4.68</v>
+      </c>
+      <c r="C101" s="17">
+        <v>4.68</v>
+      </c>
+      <c r="D101" s="17">
+        <v>4.68</v>
+      </c>
+      <c r="E101" s="17">
+        <v>4.68</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B102" s="17">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="C102" s="17">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="D102" s="17">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="E102" s="17">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="F102" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B103" s="17">
+        <v>4.62</v>
+      </c>
+      <c r="C103" s="17">
+        <v>4.62</v>
+      </c>
+      <c r="D103" s="17">
+        <v>4.62</v>
+      </c>
+      <c r="E103" s="17">
+        <v>4.62</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B104" s="17">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="C104" s="17">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="D104" s="17">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="E104" s="17">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B105" s="17">
+        <v>4.59</v>
+      </c>
+      <c r="C105" s="17">
+        <v>4.59</v>
+      </c>
+      <c r="D105" s="17">
+        <v>4.59</v>
+      </c>
+      <c r="E105" s="17">
+        <v>4.59</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B106" s="17">
+        <v>4.58</v>
+      </c>
+      <c r="C106" s="17">
+        <v>4.58</v>
+      </c>
+      <c r="D106" s="17">
+        <v>4.58</v>
+      </c>
+      <c r="E106" s="17">
+        <v>4.58</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B107" s="17">
+        <v>4.59</v>
+      </c>
+      <c r="C107" s="17">
+        <v>4.59</v>
+      </c>
+      <c r="D107" s="17">
+        <v>4.59</v>
+      </c>
+      <c r="E107" s="17">
+        <v>4.59</v>
+      </c>
+      <c r="F107" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B108" s="17">
+        <v>4.58</v>
+      </c>
+      <c r="C108" s="17">
+        <v>4.58</v>
+      </c>
+      <c r="D108" s="17">
+        <v>4.58</v>
+      </c>
+      <c r="E108" s="17">
+        <v>4.58</v>
+      </c>
+      <c r="F108" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B109" s="17">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="C109" s="17">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="D109" s="17">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E109" s="17">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="F109" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B110" s="17">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="C110" s="17">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="D110" s="17">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E110" s="17">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="F110" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B111" s="17">
+        <v>4.54</v>
+      </c>
+      <c r="C111" s="17">
+        <v>4.54</v>
+      </c>
+      <c r="D111" s="17">
+        <v>4.54</v>
+      </c>
+      <c r="E111" s="17">
+        <v>4.54</v>
+      </c>
+      <c r="F111" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B112" s="17">
+        <v>4.54</v>
+      </c>
+      <c r="C112" s="17">
+        <v>4.54</v>
+      </c>
+      <c r="D112" s="17">
+        <v>4.54</v>
+      </c>
+      <c r="E112" s="17">
+        <v>4.54</v>
+      </c>
+      <c r="F112" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B113" s="17">
+        <v>4.53</v>
+      </c>
+      <c r="C113" s="17">
+        <v>4.53</v>
+      </c>
+      <c r="D113" s="17">
+        <v>4.53</v>
+      </c>
+      <c r="E113" s="17">
+        <v>4.53</v>
+      </c>
+      <c r="F113" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B114" s="17">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="C114" s="17">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="D114" s="17">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E114" s="17">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="F114" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B115" s="17">
+        <v>4.54</v>
+      </c>
+      <c r="C115" s="17">
+        <v>4.54</v>
+      </c>
+      <c r="D115" s="17">
+        <v>4.54</v>
+      </c>
+      <c r="E115" s="17">
+        <v>4.54</v>
+      </c>
+      <c r="F115" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B116" s="17">
+        <v>4.57</v>
+      </c>
+      <c r="C116" s="17">
+        <v>4.57</v>
+      </c>
+      <c r="D116" s="17">
+        <v>4.57</v>
+      </c>
+      <c r="E116" s="17">
+        <v>4.57</v>
+      </c>
+      <c r="F116" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B117" s="17">
+        <v>4.58</v>
+      </c>
+      <c r="C117" s="17">
+        <v>4.58</v>
+      </c>
+      <c r="D117" s="17">
+        <v>4.58</v>
+      </c>
+      <c r="E117" s="17">
+        <v>4.58</v>
+      </c>
+      <c r="F117" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B118" s="17">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="C118" s="17">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="D118" s="17">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="E118" s="17">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="F118" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B119" s="17">
+        <v>4.63</v>
+      </c>
+      <c r="C119" s="17">
+        <v>4.63</v>
+      </c>
+      <c r="D119" s="17">
+        <v>4.63</v>
+      </c>
+      <c r="E119" s="17">
+        <v>4.63</v>
+      </c>
+      <c r="F119" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B120" s="17">
+        <v>4.63</v>
+      </c>
+      <c r="C120" s="17">
+        <v>4.63</v>
+      </c>
+      <c r="D120" s="17">
+        <v>4.63</v>
+      </c>
+      <c r="E120" s="17">
+        <v>4.63</v>
+      </c>
+      <c r="F120" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B121" s="17">
+        <v>4.63</v>
+      </c>
+      <c r="C121" s="17">
+        <v>4.63</v>
+      </c>
+      <c r="D121" s="17">
+        <v>4.63</v>
+      </c>
+      <c r="E121" s="17">
+        <v>4.63</v>
+      </c>
+      <c r="F121" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B122" s="17">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="C122" s="17">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="D122" s="17">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="E122" s="17">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="F122" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B123" s="17">
+        <v>4.67</v>
+      </c>
+      <c r="C123" s="17">
+        <v>4.67</v>
+      </c>
+      <c r="D123" s="17">
+        <v>4.67</v>
+      </c>
+      <c r="E123" s="17">
+        <v>4.67</v>
+      </c>
+      <c r="F123" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B124" s="17">
+        <v>4.66</v>
+      </c>
+      <c r="C124" s="17">
+        <v>4.66</v>
+      </c>
+      <c r="D124" s="17">
+        <v>4.66</v>
+      </c>
+      <c r="E124" s="17">
+        <v>4.66</v>
+      </c>
+      <c r="F124" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B125" s="17">
+        <v>4.63</v>
+      </c>
+      <c r="C125" s="17">
+        <v>4.63</v>
+      </c>
+      <c r="D125" s="17">
+        <v>4.63</v>
+      </c>
+      <c r="E125" s="17">
+        <v>4.63</v>
+      </c>
+      <c r="F125" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B126" s="17">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="C126" s="17">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="D126" s="17">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="E126" s="17">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="F126" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B127" s="17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C127" s="17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D127" s="17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E127" s="17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F127" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B128" s="17">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="C128" s="17">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="D128" s="17">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="E128" s="17">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="F128" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B129" s="17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C129" s="17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D129" s="17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E129" s="17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F129" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B130" s="17">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="C130" s="17">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="D130" s="17">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E130" s="17">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="F130" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B131" s="17">
+        <v>4.57</v>
+      </c>
+      <c r="C131" s="17">
+        <v>4.57</v>
+      </c>
+      <c r="D131" s="17">
+        <v>4.57</v>
+      </c>
+      <c r="E131" s="17">
+        <v>4.57</v>
+      </c>
+      <c r="F131" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B132" s="17">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="C132" s="17">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="D132" s="17">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="E132" s="17">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="F132" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B133" s="17">
+        <v>4.62</v>
+      </c>
+      <c r="C133" s="17">
+        <v>4.62</v>
+      </c>
+      <c r="D133" s="17">
+        <v>4.62</v>
+      </c>
+      <c r="E133" s="17">
+        <v>4.62</v>
+      </c>
+      <c r="F133" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B134" s="17">
+        <v>4.7</v>
+      </c>
+      <c r="C134" s="17">
+        <v>4.7</v>
+      </c>
+      <c r="D134" s="17">
+        <v>4.7</v>
+      </c>
+      <c r="E134" s="17">
+        <v>4.7</v>
+      </c>
+      <c r="F134" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B135" s="17">
+        <v>4.72</v>
+      </c>
+      <c r="C135" s="17">
+        <v>4.72</v>
+      </c>
+      <c r="D135" s="17">
+        <v>4.72</v>
+      </c>
+      <c r="E135" s="17">
+        <v>4.72</v>
+      </c>
+      <c r="F135" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B136" s="17">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="C136" s="17">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="D136" s="17">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="E136" s="17">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="F136" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B137" s="17">
+        <v>4.78</v>
+      </c>
+      <c r="C137" s="17">
+        <v>4.78</v>
+      </c>
+      <c r="D137" s="17">
+        <v>4.78</v>
+      </c>
+      <c r="E137" s="17">
+        <v>4.78</v>
+      </c>
+      <c r="F137" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B138" s="17">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="C138" s="17">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="D138" s="17">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="E138" s="17">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="F138" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B139" s="17">
+        <v>4.83</v>
+      </c>
+      <c r="C139" s="17">
+        <v>4.83</v>
+      </c>
+      <c r="D139" s="17">
+        <v>4.83</v>
+      </c>
+      <c r="E139" s="17">
+        <v>4.83</v>
+      </c>
+      <c r="F139" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B140" s="17">
+        <v>4.83</v>
+      </c>
+      <c r="C140" s="17">
+        <v>4.83</v>
+      </c>
+      <c r="D140" s="17">
+        <v>4.83</v>
+      </c>
+      <c r="E140" s="17">
+        <v>4.83</v>
+      </c>
+      <c r="F140" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B141" s="17">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="C141" s="17">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="D141" s="17">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E141" s="17">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F141" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B142" s="17">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="C142" s="17">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="D142" s="17">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E142" s="17">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F142" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B143" s="17">
+        <v>4.87</v>
+      </c>
+      <c r="C143" s="17">
+        <v>4.87</v>
+      </c>
+      <c r="D143" s="17">
+        <v>4.87</v>
+      </c>
+      <c r="E143" s="17">
+        <v>4.87</v>
+      </c>
+      <c r="F143" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B144" s="17">
+        <v>4.87</v>
+      </c>
+      <c r="C144" s="17">
+        <v>4.87</v>
+      </c>
+      <c r="D144" s="17">
+        <v>4.87</v>
+      </c>
+      <c r="E144" s="17">
+        <v>4.87</v>
+      </c>
+      <c r="F144" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B145" s="17">
+        <v>4.87</v>
+      </c>
+      <c r="C145" s="17">
+        <v>4.87</v>
+      </c>
+      <c r="D145" s="17">
+        <v>4.87</v>
+      </c>
+      <c r="E145" s="17">
+        <v>4.87</v>
+      </c>
+      <c r="F145" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B146" s="17">
+        <v>4.87</v>
+      </c>
+      <c r="C146" s="17">
+        <v>4.87</v>
+      </c>
+      <c r="D146" s="17">
+        <v>4.87</v>
+      </c>
+      <c r="E146" s="17">
+        <v>4.87</v>
+      </c>
+      <c r="F146" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B147" s="17">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="C147" s="17">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="D147" s="17">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E147" s="17">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F147" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B148" s="17">
+        <v>4.87</v>
+      </c>
+      <c r="C148" s="17">
+        <v>4.87</v>
+      </c>
+      <c r="D148" s="17">
+        <v>4.87</v>
+      </c>
+      <c r="E148" s="17">
+        <v>4.87</v>
+      </c>
+      <c r="F148" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B149" s="17">
+        <v>4.87</v>
+      </c>
+      <c r="C149" s="17">
+        <v>4.87</v>
+      </c>
+      <c r="D149" s="17">
+        <v>4.87</v>
+      </c>
+      <c r="E149" s="17">
+        <v>4.87</v>
+      </c>
+      <c r="F149" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B150" s="17">
+        <v>4.87</v>
+      </c>
+      <c r="C150" s="17">
+        <v>4.87</v>
+      </c>
+      <c r="D150" s="17">
+        <v>4.87</v>
+      </c>
+      <c r="E150" s="17">
+        <v>4.87</v>
+      </c>
+      <c r="F150" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B151" s="17">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="C151" s="17">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="D151" s="17">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E151" s="17">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F151" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B152" s="17">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="C152" s="17">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="D152" s="17">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E152" s="17">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F152" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B153" s="17">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="C153" s="17">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="D153" s="17">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E153" s="17">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F153" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B154" s="17">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="C154" s="17">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D154" s="17">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E154" s="17">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="F154" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B155" s="17">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C155" s="17">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D155" s="17">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E155" s="17">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F155" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B156" s="17">
+        <v>4.91</v>
+      </c>
+      <c r="C156" s="17">
+        <v>4.91</v>
+      </c>
+      <c r="D156" s="17">
+        <v>4.91</v>
+      </c>
+      <c r="E156" s="17">
+        <v>4.91</v>
+      </c>
+      <c r="F156" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B157" s="17">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="C157" s="17">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="D157" s="17">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="E157" s="17">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="F157" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B158" s="17">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="C158" s="17">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="D158" s="17">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="E158" s="17">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="F158" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B159" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="C159" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="D159" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="E159" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="F159" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B160" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="C160" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="D160" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="E160" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="F160" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B161" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="C161" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="D161" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="E161" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="F161" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B162" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="C162" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="D162" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="E162" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="F162" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B163" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="C163" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="D163" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="E163" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="F163" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B164" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="C164" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="D164" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="E164" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="F164" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B165" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="C165" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="D165" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="E165" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="F165" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B166" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="C166" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="D166" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="E166" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="F166" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B167" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="C167" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="D167" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="E167" s="17">
+        <v>4.97</v>
+      </c>
+      <c r="F167" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B168" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="C168" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="D168" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="E168" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="F168" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B169" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="C169" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="D169" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="E169" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="F169" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="18">
+      <c r="A172" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
